--- a/biology/Botanique/Liste_de_la_flore_de_l'île_Campbell/Liste_de_la_flore_de_l'île_Campbell.xlsx
+++ b/biology/Botanique/Liste_de_la_flore_de_l'île_Campbell/Liste_de_la_flore_de_l'île_Campbell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_la_flore_de_l%27%C3%AEle_Campbell</t>
+          <t>Liste_de_la_flore_de_l'île_Campbell</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste de la flore des espèces présentes sur l'île Campbell, classée par famille suivant un ordre alphabétique[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste de la flore des espèces présentes sur l'île Campbell, classée par famille suivant un ordre alphabétique. 
 Sommaire :
 Haut – A
 B
@@ -520,7 +532,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_la_flore_de_l%27%C3%AEle_Campbell</t>
+          <t>Liste_de_la_flore_de_l'île_Campbell</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -538,7 +550,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Apiaceae
 Anisotome antipoda
@@ -559,7 +573,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_la_flore_de_l%27%C3%AEle_Campbell</t>
+          <t>Liste_de_la_flore_de_l'île_Campbell</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -577,7 +591,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Caryophyllaceae
 Colobanthus muscoide
@@ -594,7 +610,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_de_la_flore_de_l%27%C3%AEle_Campbell</t>
+          <t>Liste_de_la_flore_de_l'île_Campbell</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -612,7 +628,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dryopteridaceae
 Polystichum vestitum</t>
@@ -625,7 +643,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_de_la_flore_de_l%27%C3%AEle_Campbell</t>
+          <t>Liste_de_la_flore_de_l'île_Campbell</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -643,7 +661,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ericaceae
 Dracophyllum insulare
@@ -658,7 +678,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_de_la_flore_de_l%27%C3%AEle_Campbell</t>
+          <t>Liste_de_la_flore_de_l'île_Campbell</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -676,7 +696,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Hymenophyllaceae
 Hymenophyllum minimum</t>
@@ -689,7 +711,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_de_la_flore_de_l%27%C3%AEle_Campbell</t>
+          <t>Liste_de_la_flore_de_l'île_Campbell</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -707,7 +729,9 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Juncaceae
 Marsippospermum gracile
@@ -721,7 +745,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_de_la_flore_de_l%27%C3%AEle_Campbell</t>
+          <t>Liste_de_la_flore_de_l'île_Campbell</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -739,7 +763,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Myrtaceae
 Metrosideros umbellata</t>
@@ -752,7 +778,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_de_la_flore_de_l%27%C3%AEle_Campbell</t>
+          <t>Liste_de_la_flore_de_l'île_Campbell</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -770,7 +796,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Onagraceae
 Epilobium pedunculare</t>
@@ -783,7 +811,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_de_la_flore_de_l%27%C3%AEle_Campbell</t>
+          <t>Liste_de_la_flore_de_l'île_Campbell</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -801,7 +829,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Pinaceae
 Picea sitchensis
@@ -820,7 +850,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_de_la_flore_de_l%27%C3%AEle_Campbell</t>
+          <t>Liste_de_la_flore_de_l'île_Campbell</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -838,7 +868,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Restionaceae
 Centrolepis pallida
@@ -853,7 +885,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_de_la_flore_de_l%27%C3%AEle_Campbell</t>
+          <t>Liste_de_la_flore_de_l'île_Campbell</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -871,7 +903,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Stylidiaceae
 Phyllachne clavigera</t>
@@ -884,7 +918,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_de_la_flore_de_l%27%C3%AEle_Campbell</t>
+          <t>Liste_de_la_flore_de_l'île_Campbell</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -902,9 +936,11 @@
           <t>Bryophytes</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Mousses présentes sur l'île Campbell[1] :
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Mousses présentes sur l'île Campbell :
 Ptychomnion densifolium
 Acrocladium auriculatum
 Macromitrium longirostrees
@@ -918,7 +954,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_de_la_flore_de_l%27%C3%AEle_Campbell</t>
+          <t>Liste_de_la_flore_de_l'île_Campbell</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -936,9 +972,11 @@
           <t>Lichens</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Genres de lichens présents sur l'île Campbell[1] :
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Genres de lichens présents sur l'île Campbell :
 Pseudocyphellaria
 Sphaerophorus
 Psoroma</t>
